--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney_Beneficiary.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney_Beneficiary.xlsx
@@ -438,21 +438,27 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="10" width="44.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="21.5703125" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="185.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="87.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="167.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="86.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney_Beneficiary.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney_Beneficiary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="66">
   <si>
     <t>Case</t>
   </si>
@@ -33,18 +33,9 @@
     <t>PurposeOfPayment_Value</t>
   </si>
   <si>
-    <t>02197900643103 | MUHAMMAD KHALID | BANK ROAD, MARDAN</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
     <t>Account_Number_Value</t>
   </si>
   <si>
-    <t>status_query</t>
-  </si>
-  <si>
     <t>Tran_Pass_Value</t>
   </si>
   <si>
@@ -66,56 +57,173 @@
     <t>SELECT DT.PURPOSE_OF_PAYMENT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
   </si>
   <si>
+    <t>tran_type_query</t>
+  </si>
+  <si>
+    <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>tran_amount_query</t>
+  </si>
+  <si>
+    <t>to_account_query</t>
+  </si>
+  <si>
+    <t>to_bank_query</t>
+  </si>
+  <si>
+    <t>bene_name_query</t>
+  </si>
+  <si>
+    <t>SELECT DT.TO_ACCOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT DT.BENEFICIARY_NAME FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT DT.TRANSACTION_AMOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT DB.BANK_NAME FROM DC_FUND_TRANSFER_BANK DB WHERE DB.FUND_TRANSFER_BANK_ID = (SELECT DT.BANK_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>Success_Message</t>
+  </si>
+  <si>
+    <t>14660017195901</t>
+  </si>
+  <si>
+    <t>Courier Services</t>
+  </si>
+  <si>
+    <t>Money sent successfully.</t>
+  </si>
+  <si>
+    <t>pakistan22</t>
+  </si>
+  <si>
+    <t>16817900545603</t>
+  </si>
+  <si>
+    <t>07867918480599</t>
+  </si>
+  <si>
+    <t>PK50HABB0013227900983503</t>
+  </si>
+  <si>
+    <t>00020000011005730</t>
+  </si>
+  <si>
+    <t>PK47ABPA0002000001100111</t>
+  </si>
+  <si>
+    <t>03334900122</t>
+  </si>
+  <si>
+    <t>PK95UNIL0308125600740993</t>
+  </si>
+  <si>
+    <t>23897000217303</t>
+  </si>
+  <si>
+    <t>03334900120</t>
+  </si>
+  <si>
+    <t>08527900480003</t>
+  </si>
+  <si>
+    <t>22837900558401</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>To Verify Konnect transaction max limit exceed Bene_PSN_N</t>
+  </si>
+  <si>
+    <t>To Verify Microfinance IBFT transaction via IBAN max limit exceed Bene_PSN_N</t>
+  </si>
+  <si>
+    <t>To Verify IBFT transaction max limit exceed Bene_PSN_Y</t>
+  </si>
+  <si>
+    <t>To Verify Konnect transaction max limit exceed Bene_PSN_Y</t>
+  </si>
+  <si>
+    <t>To Verify Microfinance IBFT transaction via IBAN max limit exceed Bene_PSN_Y</t>
+  </si>
+  <si>
+    <t>To Verify success Microfinance IBFT via IBAN Bene_PSN_N</t>
+  </si>
+  <si>
+    <t>To Verify  IBFT transaction Via IBAN Bene_PSN_N</t>
+  </si>
+  <si>
+    <t>To Verify  IBFT transaction with max limit allowed limit Bene_PSN_N</t>
+  </si>
+  <si>
+    <t>To Verify  IBFT transaction Bene_PSN_N</t>
+  </si>
+  <si>
+    <t>To verify success transaction of conventional Bene_PSN_N</t>
+  </si>
+  <si>
+    <t>To verify transaction via IBAN Bene_PSN_N</t>
+  </si>
+  <si>
+    <t>To Verify FT transaction on FCY account Bene_PSN_N</t>
+  </si>
+  <si>
+    <t>To verify transaction with empty transaction password field Bene_PSN_N</t>
+  </si>
+  <si>
+    <t>To verify transaction with empty Amount field Bene_PSN_N</t>
+  </si>
+  <si>
+    <t>To verify that, if Bene account is blocked Bene_PSN_N</t>
+  </si>
+  <si>
+    <t>To verify transaction with decimal amount Bene_PSN_N</t>
+  </si>
+  <si>
+    <t>To verify transaction with zero amount Bene_PSN_N</t>
+  </si>
+  <si>
+    <t>To verify that, if user did not select the purpose of payment &amp; hit next btn Bene_PSN_N</t>
+  </si>
+  <si>
+    <t>To check FT can not be performed with more than Avail bal Bene_Insuff</t>
+  </si>
+  <si>
+    <t>To check that user can not perform FT with invalid tran pass Bene_PSN_N</t>
+  </si>
+  <si>
+    <t>To Verify Send money with max limit allowed within HBL FT Bene_PSN_N</t>
+  </si>
+  <si>
+    <t>To Verify Send money with max limit allowed within HBL FT Bene_PSN_Y</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>DIGITAL_CHANNEL_SEC</t>
-  </si>
-  <si>
-    <t>06047900194203</t>
-  </si>
-  <si>
-    <t>tran_type_query</t>
-  </si>
-  <si>
-    <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
-    <t>tran_amount_query</t>
-  </si>
-  <si>
-    <t>to_account_query</t>
-  </si>
-  <si>
-    <t>to_bank_query</t>
-  </si>
-  <si>
-    <t>bene_name_query</t>
-  </si>
-  <si>
-    <t>SELECT DT.TO_ACCOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
-    <t>SELECT DT.BENEFICIARY_NAME FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
-    <t>SELECT DT.TRANSACTION_AMOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
-    <t>SELECT DB.BANK_NAME FROM DC_FUND_TRANSFER_BANK DB WHERE DB.FUND_TRANSFER_BANK_ID = (SELECT DT.BANK_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
-    <t>Your transaction has been processed successfully.</t>
-  </si>
-  <si>
-    <t>Success_Message</t>
-  </si>
-  <si>
-    <t>When valid Bene is provided for Send Money</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,10 +232,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF262626"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,11 +272,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,127 +561,1173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="87.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="185.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="87.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="80.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="167.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="86.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="80.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="167.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="83.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="86.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5">
+        <v>155.55000000000001</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5">
+        <v>25001</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="E11" s="5">
+        <v>150</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" t="s">
-        <v>15</v>
+      <c r="E12" s="5">
+        <v>1050</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1050</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="5">
+        <v>25001</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1050</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="5">
+        <v>5001</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="5">
+        <v>5001</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1050</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="5">
+        <v>150001</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="5">
+        <v>150001</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="5">
+        <v>6000</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
